--- a/results/MVSE/imdb/MVSE_imdb<l05><WH>63.85.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l05><WH>63.85.xlsx
@@ -539,7 +539,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -592,7 +596,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_12_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -608,7 +614,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -661,7 +671,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_17_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -677,7 +689,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -707,7 +723,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
@@ -746,7 +764,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -799,7 +821,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_55_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -872,7 +896,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_19_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -888,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -941,7 +971,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_45_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1014,7 +1046,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-18_33_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1030,7 +1064,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1060,7 +1098,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
@@ -1099,7 +1139,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1152,7 +1196,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-17_53_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1168,7 +1214,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1221,7 +1271,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_46_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1294,7 +1346,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_11_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1310,7 +1364,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1363,7 +1421,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_48_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1379,7 +1439,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1432,7 +1496,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_37_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1448,7 +1514,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1501,7 +1571,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_18_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1517,7 +1589,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1570,7 +1646,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_01_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1586,7 +1664,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1639,7 +1721,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_28_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1655,7 +1739,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1685,7 +1773,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
@@ -1724,7 +1814,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1777,7 +1871,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_19_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1827,7 +1923,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
@@ -1923,7 +2021,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-17_33_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1996,7 +2096,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_53_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2046,7 +2148,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
@@ -2142,7 +2246,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_14_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2215,7 +2321,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_54_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2288,7 +2396,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_45_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2338,7 +2448,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
